--- a/data/trans_camb/P9_1-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P9_1-Estudios-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-2,73</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>-1,45</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 2,32</t>
+          <t>-1,51; 3,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 2,6</t>
+          <t>-7,65; 0,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 1,86</t>
+          <t>-4,36; 0,6</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,12%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,17%</t>
+          <t>-2,75%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,59%</t>
+          <t>-1,46%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 2,37</t>
+          <t>-1,51; 3,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 2,73</t>
+          <t>-7,65; 0,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 1,94</t>
+          <t>-4,41; 0,6</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,01</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 0,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 1,81</t>
+          <t>-0,77; 1,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 0,97</t>
+          <t>-0,4; 0,63</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,02%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,01%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>0,01%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 0,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 1,85</t>
+          <t>-0,77; 1,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 0,98</t>
+          <t>-0,4; 0,63</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-0,6</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 0,0</t>
+          <t>-1,37; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 0,57</t>
+          <t>-2,53; -0,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 0,18</t>
+          <t>-1,5; -0,18</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,2%</t>
+          <t>-0,28%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,45%</t>
+          <t>-0,91%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,33%</t>
+          <t>-0,6%</t>
         </is>
       </c>
     </row>
@@ -817,24 +817,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 0,0</t>
+          <t>-1,37; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 0,47</t>
+          <t>-2,53; -0,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 0,18</t>
+          <t>-1,5; -0,18</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -854,7 +854,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 0,52</t>
+          <t>-1,7; 1,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 1,13</t>
+          <t>-1,58; 1,81</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 0,61</t>
+          <t>-1,11; 1,05</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,26%</t>
+          <t>-0,05%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-0,02%</t>
+          <t>0,08%</t>
         </is>
       </c>
     </row>
@@ -913,25 +913,129 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 0,53</t>
+          <t>-1,72; 1,17</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 1,14</t>
+          <t>-1,61; 1,86</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 0,62</t>
+          <t>-1,13; 1,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,13</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,08</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-0,59; 0,8</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-1,04; 0,9</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-0,63; 0,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0,13%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-0,08%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0,02%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-0,59; 0,81</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-1,05; 0,92</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-0,63; 0,64</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P9_1-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P9_1-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,203 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,15</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-2,73</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-1,45</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.1510593578407327</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-2.698441324695944</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-1.444206512871615</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,51; 3,16</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-7,65; 0,66</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-4,36; 0,6</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1.486732674661166</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-7.66980537876755</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-4.336546503652106</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,15%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-2,75%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-1,46%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>3.214229600704074</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.4665287182867149</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.6231256493536748</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-1,51; 3,26</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-7,65; 0,67</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-4,41; 0,6</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.001523999924371321</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.02722599062642133</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.01457083748380704</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,01</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,01</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.01487706760838708</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.07737964720551817</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.04347902101409373</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-0,77; 1,2</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,4; 0,63</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.03306000948061885</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.004228308160704119</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.006255663875934397</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,01%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,01%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.0919935934660665</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.0501777714043472</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,77; 1,22</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,4; 0,63</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="n">
+        <v>-0.6046470266000901</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.3146060657994134</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,28</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,91</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,6</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="n">
+        <v>1.534310905097038</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.6333913918510349</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-1,37; 0,0</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,53; -0,25</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,5; -0,18</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.0009235693272797319</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.0005028132843665055</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-0,28%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,91%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-0,6%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="inlineStr"/>
+      <c r="D14" s="6" t="n">
+        <v>-0.006046949236130085</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.003146115083162088</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-1,37; 0,0</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-2,53; -0,25</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-1,5; -0,18</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="inlineStr"/>
+      <c r="D15" s="6" t="n">
+        <v>0.0155779178188193</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.006373925031834173</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,202 +767,221 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-0,05</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,2</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,08</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-0.2861701850601306</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-0.9809902445517271</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.6424171079739471</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-1,7; 1,14</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-1,58; 1,81</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-1,11; 1,05</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-1.451370393649669</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-2.748545611279605</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-1.575050516316292</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-0,05%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>0,2%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>0,08%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>-0.2775127194851223</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>-0.1727316304568086</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-1,72; 1,17</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-1,61; 1,86</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-1,13; 1,08</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.002861701850601306</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.009809902445517271</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.006424171079739471</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>0,13</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-0,08</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,02</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.01451370393649669</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.02748545611279605</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.01575050516316293</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-0,59; 0,8</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-1,04; 0,9</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-0,63; 0,63</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>-0.002775127194851223</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>-0.001727316304568086</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>0,13%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-0,08%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>0,02%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-0.07387757160393083</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.8210566511590578</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-0.463112392128695</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-0,59; 0,81</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-1,05; 0,92</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-0,63; 0,64</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-0.4504816154173251</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-1.800001629317209</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-1.043303965341014</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>0.3387555432973153</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.01154150781136909</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.02397032579423517</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.0007398815784511842</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.008238612774700031</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.004642769844572389</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.004506218115016991</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.01799856286240086</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.01043471303091028</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.003402168639443219</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.0001227450049881217</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.000238270355840176</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+  <mergeCells count="5">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
